--- a/medicine/Sexualité et sexologie/Brigitte_Lahaie/Brigitte_Lahaie.xlsx
+++ b/medicine/Sexualité et sexologie/Brigitte_Lahaie/Brigitte_Lahaie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Brigitte Lahaie, née le 12 octobre 1955 à Tourcoing (Nord), est une actrice et animatrice de radio française.
 Elle fut l'une des premières stars du cinéma pornographique français à l'époque de son « âge d’or » et de la libération sexuelle des années 1970 à 1980, période durant laquelle des salles confidentielles passaient des films X tournés en 35 mm. Brigitte Lahaie fut l'une des égéries de cette période.
@@ -516,91 +528,279 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enfance et débuts
-Fille d'un employé de banque et d'une représentante de commerce, Brigitte Vanmeerhaeghe, dite Brigitte Lahaie, ne vit que durant sa première année dans le Nord, passant sa jeunesse en Alsace, puis à Lyon (où sa famille emménage en 1967) au gré des mutations professionnelles de son père. Elle revient régulièrement séjourner dans la région lilloise où elle a encore des attaches familiales[2]. Elle exerce le métier de vendeuse de chaussures avant de déménager à Paris à l’âge de dix-huit ans et de commencer à poser nue pour des magazines.
-Actrice X
-Brigitte Lahaie commence sa carrière d'actrice pornographique à l'âge de vingt ans en 1976 et exerce ce métier jusqu'en 1980,  tournant dans une centaine de films (certains étant seulement érotiques)[3].
+          <t>Enfance et débuts</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fille d'un employé de banque et d'une représentante de commerce, Brigitte Vanmeerhaeghe, dite Brigitte Lahaie, ne vit que durant sa première année dans le Nord, passant sa jeunesse en Alsace, puis à Lyon (où sa famille emménage en 1967) au gré des mutations professionnelles de son père. Elle revient régulièrement séjourner dans la région lilloise où elle a encore des attaches familiales. Elle exerce le métier de vendeuse de chaussures avant de déménager à Paris à l’âge de dix-huit ans et de commencer à poser nue pour des magazines.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Brigitte_Lahaie</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brigitte_Lahaie</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Actrice X</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Brigitte Lahaie commence sa carrière d'actrice pornographique à l'âge de vingt ans en 1976 et exerce ce métier jusqu'en 1980,  tournant dans une centaine de films (certains étant seulement érotiques).
 Durant cette courte période, elle a travaillé avec les principaux réalisateurs du cinéma X de l'époque : Claude Mulot (Jouissances, 1976), Gérard Kikoïne (Parties fines, 1977), Burd Tranbaree (La Rabatteuse, 1978), José Bénazéraf (Bordel SS, 1978) et Francis Leroi (Je suis à prendre, 1978). Ces films ont été en majorité édités chez Alpha France et René Château Vidéo et réédités, pour certains, en DVD dans la collection « Les grands succès du cinéma X français » chez Blue One.
 Elle exerçait sa profession à une époque où les scénarios étaient parfois drôles et inventifs, les scènes X elles-mêmes étant assez peu « anatomiques » et laissant place à une certaine mise en situation érotique. Ainsi, dans son dernier film, Les Petites Écolières de Claude Mulot (alias Frédéric Lansac) en 1980, elle joue le rôle d’une tenancière de maison close amenée à se reconvertir dans la direction d’un pensionnat pour jeunes filles. Bien entendu, l’éducation dispensée dans cet établissement porte sur des matières plus proches de la leçon de choses que du programme officiel de l’Éducation nationale.
-Elle tourne sa dernière scène en 2020, à l'âge de 64 ans, sous la direction de Olympe de G pour le film "Une dernière fois" relatant l'histoire d'une femme qui va bientôt mourir et qui décide de planifier son dernier acte charnel[4].
-Reconversion
-Avant même l'abandon de sa carrière dans le X, Brigitte Lahaie a tenu des rôles dans des films non pornographiques, notamment des films fantastiques réalisés par Jean Rollin. C'est à l'occasion du tournage de Vibrations sexuelles, un film X, que le réalisateur remarque sa différence, son charisme[5]. Il lui confie donc un rôle dans Les Raisins de la mort, tourné fin 1977. Reine du porno hardcore, elle est, dans ce film, opposée à Marie-Georges Pascal qui fut une vedette du cinéma érotique « soft » au début de la décennie. Rollin lui donne ensuite l'opportunité d'être la protagoniste de Fascination aux côtés de Franca Maï et de La Nuit des traquées avec également Catherine Greiner (Cathy Stewart).
+Elle tourne sa dernière scène en 2020, à l'âge de 64 ans, sous la direction de Olympe de G pour le film "Une dernière fois" relatant l'histoire d'une femme qui va bientôt mourir et qui décide de planifier son dernier acte charnel.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Brigitte_Lahaie</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brigitte_Lahaie</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Reconversion</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Avant même l'abandon de sa carrière dans le X, Brigitte Lahaie a tenu des rôles dans des films non pornographiques, notamment des films fantastiques réalisés par Jean Rollin. C'est à l'occasion du tournage de Vibrations sexuelles, un film X, que le réalisateur remarque sa différence, son charisme. Il lui confie donc un rôle dans Les Raisins de la mort, tourné fin 1977. Reine du porno hardcore, elle est, dans ce film, opposée à Marie-Georges Pascal qui fut une vedette du cinéma érotique « soft » au début de la décennie. Rollin lui donne ensuite l'opportunité d'être la protagoniste de Fascination aux côtés de Franca Maï et de La Nuit des traquées avec également Catherine Greiner (Cathy Stewart).
 Amorçant une reconversion professionnelle dans le cinéma dit « classique » à l'orée des années 1980, elle apparaît dans de petits rôles, souvent créditée du nom de Brigitte Simonin : une strip-teaseuse dans I... comme Icare d'Henri Verneuil en 1979, « une fille sans culotte » dans Diva de Jean-Jacques Beineix en 1980, une infirmière aux côtés d'Alain Delon dans Pour la peau d'un flic en 1981, une femme sexy en vidéo dans Te marre pas... c'est pour rire ! en 1982, et même une mère de famille dans N'oublie pas ton père au vestiaire avec Jean Lefebvre en 1982. Elle participe même à une pièce de l'émission grand public Au théâtre ce soir.
 Dans le même temps, elle continue à apparaître dans quelques films érotiques, dont Joy &amp; Joan de Jacques Saurel en 1985 et Le Diable rose de Pierre B. Reinhard (avec Roger Carel et Pierre Doris) en 1987, et dans quelques films de genre : L'Exécutrice de Michel Caputo en 1986 dans lequel elle tient le rôle-titre d'une femme-flic. Elle joue ensuite dans deux films de Max Pécas (Brigade des mœurs en 1985, On se calme et on boit frais à Saint-Tropez en 1987). L'année suivante, elle tourne sous la direction de Jess Franco dans Les Prédateurs de la nuit puis Dark Mission : Les Fleurs du mal (au côté de Christopher Lee). En 1990, elle tient de nouveau un petit rôle de prostituée dans Henry et June de Philip Kaufman, l'un des premiers films d'Uma Thurman. Puis, on la revoit dans Illusions Fatales en 1993 de Patrick Malakian avec Élise Tielrooy, Les Deux Orphelines vampires de Jean Rollin en 1997 et La dame pipi en 2000 de Jacques Richard tiré d'une nouvelle de Roland Topor. Elle retrouve ensuite Jean Rollin avec le film La fiancée de Dracula en 2002. Elle apparait également, en 2005, au cinéma, dans le film Calvaire de Fabrice Du Welz.
 Si l'actrice est une des rares vedettes du porno qui soit parvenue à sortir du « ghetto du X », elle est restée pour l'essentiel confinée dans le cinéma bis et n'a fait que de petites apparitions dans des films « grand public ». Elle s'impose en tous cas comme une actrice-fétiche de Jean Rollin avec qui elle a travaillé à sept reprises.
 Faisant feu de tout bois au terme de sa carrière d'actrice X, elle se fait remarquer par sa participation à l'émission radio, Les Grosses Têtes, diffusée sur RTL en France.
 Elle s'est également essayée à la littérature avec une autobiographie intitulée Moi, la scandaleuse, ce qui lui permet d'être invitée a l'émission Apostrophes de Bernard Pivot le 27 mars 1987 et écrit deux romans érotiques publiés chez J'ai lu : La femme modèle (1991), qui raconte l'histoire d'une femme mariée entreprenant de poser nue, et Le sens de la vie (1994). On lui doit aussi quelques essais sur la sexualité : Les chemins du mieux aimer (J'ai Lu, 1999), D'amour et de sexe (Marabout, 2004), etc. En 2007 parait Parlez-nous d'amour, en collaboration avec le Père Patrice Gourrier, proposant deux regards sur le couple, le désir et la sexualité.
-Elle tente par ailleurs de percer dans la chanson en 1987, avec le titre Caresse tendresse, qui passe cependant inaperçu[6].
-Nouvelle carrière d'animatrice
-À la fin des années 1990, Brigitte Lahaie anime quelques émissions sur des chaînes du câble français. Ces émissions sont le plus souvent centrées sur la sexualité. On la voit notamment sur la chaîne XXL spécialisée dans la pornographie.
-C'est à la radio qu'elle retrouve un statut de vedette en tant que présentatrice sur l'antenne de RMC. De 2001 à 2016, la star y anime Lahaie, l'Amour et Vous, une quotidienne, de 14 heures à 16 heures, qui traite des relations amoureuses et sexuelles, rediffusée à minuit[7],[8]. Durant l'été 2012, elle commente les épreuves d'équitation des JO de Londres pour RMC[9].
-En 2016, après avoir été évincée de RMC, elle continue la radio en allant sur Sud Radio. Elle y anime une quotidienne, de 14 heures à 16 heures[10].
-Prises de position
-En janvier 2018, en plein débat sur les violences sexuelles à la suite de l'affaire Weinstein, elle fait partie d'un groupe d'une centaine de femmes signant une tribune dans Le Monde pour critiquer les dérives du mouvement #MeToo et de son équivalent français #BalanceTonPorc[11]. Dans ce contexte, durant un débat sur BFM TV, elle déclare, lors d'un échange avec Caroline De Haas : « On peut jouir lors d'un viol »[12]. Plusieurs femmes ayant cosigné la tribune font alors savoir qu'elles se désolidarisent de ses propos[13]. Après le tollé suscité par sa déclaration, Brigitte Lahaie déclare le 12 janvier, sur TV5 Monde, que ses propos ont été mal compris et sortis de leur contexte. Elle explique avoir voulu non pas minimiser le viol, mais rappeler que « parfois, le corps et l'esprit ne coïncident pas » ce qui d'ailleurs peut rendre « la reconstruction encore plus compliquée ». Elle déplore à cette occasion avoir fait l'objet d'un lynchage dans les médias et sur les réseaux sociaux, et commente : « Je suis une femme qui a souffert dans sa chair et qui depuis trente ans aide les femmes à se libérer. C'est tout. Et quand on est incomprise à ce point, c'est vrai que ça fait mal[14],[15]. »
-Vie personnelle
-Brigitte Lahaie a été la compagne de l'éditeur René Chateau dans les années 1980[16].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Brigitte_Lahaie</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Sexualité et sexologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Brigitte_Lahaie</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+Elle tente par ailleurs de percer dans la chanson en 1987, avec le titre Caresse tendresse, qui passe cependant inaperçu.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Brigitte_Lahaie</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brigitte_Lahaie</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Nouvelle carrière d'animatrice</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À la fin des années 1990, Brigitte Lahaie anime quelques émissions sur des chaînes du câble français. Ces émissions sont le plus souvent centrées sur la sexualité. On la voit notamment sur la chaîne XXL spécialisée dans la pornographie.
+C'est à la radio qu'elle retrouve un statut de vedette en tant que présentatrice sur l'antenne de RMC. De 2001 à 2016, la star y anime Lahaie, l'Amour et Vous, une quotidienne, de 14 heures à 16 heures, qui traite des relations amoureuses et sexuelles, rediffusée à minuit,. Durant l'été 2012, elle commente les épreuves d'équitation des JO de Londres pour RMC.
+En 2016, après avoir été évincée de RMC, elle continue la radio en allant sur Sud Radio. Elle y anime une quotidienne, de 14 heures à 16 heures.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Brigitte_Lahaie</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brigitte_Lahaie</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Prises de position</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En janvier 2018, en plein débat sur les violences sexuelles à la suite de l'affaire Weinstein, elle fait partie d'un groupe d'une centaine de femmes signant une tribune dans Le Monde pour critiquer les dérives du mouvement #MeToo et de son équivalent français #BalanceTonPorc. Dans ce contexte, durant un débat sur BFM TV, elle déclare, lors d'un échange avec Caroline De Haas : « On peut jouir lors d'un viol ». Plusieurs femmes ayant cosigné la tribune font alors savoir qu'elles se désolidarisent de ses propos. Après le tollé suscité par sa déclaration, Brigitte Lahaie déclare le 12 janvier, sur TV5 Monde, que ses propos ont été mal compris et sortis de leur contexte. Elle explique avoir voulu non pas minimiser le viol, mais rappeler que « parfois, le corps et l'esprit ne coïncident pas » ce qui d'ailleurs peut rendre « la reconstruction encore plus compliquée ». Elle déplore à cette occasion avoir fait l'objet d'un lynchage dans les médias et sur les réseaux sociaux, et commente : « Je suis une femme qui a souffert dans sa chair et qui depuis trente ans aide les femmes à se libérer. C'est tout. Et quand on est incomprise à ce point, c'est vrai que ça fait mal,. »
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Brigitte_Lahaie</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brigitte_Lahaie</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Vie personnelle</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Brigitte Lahaie a été la compagne de l'éditeur René Chateau dans les années 1980.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Brigitte_Lahaie</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brigitte_Lahaie</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Engagement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Brigitte Lahaie est membre du comité d'honneur de l'Association pour le droit de mourir dans la dignité (ADMD)[17].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Brigitte_Lahaie</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Sexualité et sexologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Brigitte_Lahaie</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Brigitte Lahaie est membre du comité d'honneur de l'Association pour le droit de mourir dans la dignité (ADMD).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Brigitte_Lahaie</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brigitte_Lahaie</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Filmographie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Films "classiques"
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Films "classiques"</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 1978 : Les Raisins de la mort de Jean Rollin : la femme blonde
 1978 : Nathalie dans l'enfer nazi d'Alain Payet : Elisabeth
 1978 : Fièvres noctures de Burd Tranbaree : La femme blonde
@@ -638,8 +838,47 @@
 2007 : La Nuit des horloges de Jean Rollin (images extraites de Fascination)
 2009 : Quelque chose à te dire de Cécile Telerman : elle-même (voix)
 2013 :  Le Bonheur de Fabrice Grange : médecin d'Alice
-Films pornographiques et érotiques
-Année 1977
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Brigitte_Lahaie</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brigitte_Lahaie</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Films pornographiques et érotiques</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Année 1977</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 1977 : Je suis une belle salope de Gérard Vernier (Gérard Thum)
 1977 : Jouir jusqu'au délire de Gérard Vernier
 1977 : La Face cachée d’Hitler de Richard Balducci
@@ -653,7 +892,47 @@
 1977 : Entrecuisses/Possessions de Pierre B. Reinhard
 1977 : Cathy, fille soumise de Robert Renzulli (Bob W. Sanders)
 1977 : Arrête, tu me déchires d'Henri Sala (Ken Warren)
-Année 1978
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Brigitte_Lahaie</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brigitte_Lahaie</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Films pornographiques et érotiques</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Année 1978</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 1978 : C'est la fête à mon cul d'Henri Sala (Ken Warren)
 1978 : La Clinique des fantasmes de Gérard Kikoïne
 1978 : Étreintes de René Mazin (Maxi Micky)
@@ -681,7 +960,47 @@
 1978 : Tout pour jouir de Gérard Kikoïne
 1978 : Prends-moi de force de Jean-Marie Pallardy
 1978 : Blondes humides de Claude Pierson (Paul Martin)
-Année 1979
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Brigitte_Lahaie</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brigitte_Lahaie</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Films pornographiques et érotiques</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Année 1979</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 1979 : L'Histoire des 3 petits cochons de Robert Perrin
 1979 : Couple cherche esclave sexuel de Jean-Claude Roy (Patrick Aubin)
 1979 : Je brûle de partout de Jess Franco (Clifford Brown)
@@ -696,7 +1015,47 @@
 1979 : Cette malicieuse Martine ou Secrétaires sans culottes de Michael Goritschnig et Pablo Juan Torena
 1979 : Six suédoises au collège (Sechs Schwedinnen im Pensionat) d'Erwin C. Dietrich (Michael Thomas) : Greta (érotique)
 1979 : Photos scandales de Jean-Claude Roy (Patrick Aubin) : (érotique)
-Année 1980
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Brigitte_Lahaie</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brigitte_Lahaie</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Films pornographiques et érotiques</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Année 1980</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 1980 : Secrets d'adolescentes de Gérard Loubeau et Roberto Girometti (Bob Ghisais)
 1980 : Hurlements d'extase de José Bénazéraf
 1980 : Le Retour des veuves de Claude Bernard-Aubert (Burd Trandbaree)
@@ -709,30 +1068,218 @@
 1980 : Les Bourgeoises de l'amour (Die Nichten der Frau Oberst) d'Erwin C. Dietrich (Michael Thomas) : Julia (érotique)
 1980 : Le Corps et le Fouet (Gefangene Frauen) d'Erwin C. Dietrich (Michael Thomas) : Rita (érotique)
 1980 : Filles sans voile (Sechs Schwedinnen von der Tankstelle) d'Erwin C. Dietrich (Michael Thomas) : Greta (érotique)
-Année 1981
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Brigitte_Lahaie</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brigitte_Lahaie</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Films pornographiques et érotiques</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Année 1981</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 1981 : Body-body à Bangkok de Jean-Marie Pallardy
 1981 : Les Deux gamines d'Alain Nauroy et Claude Pierson (Carolyn Joyce)
 1981 : Parties très spéciales de Gérard Kikoïne
 1981 : Enquêtes ou Call Girls de Luxe de Gérard Kikoïne
 1981 : Innocence impudique de Jean-Claude Roy (Patrick Aubin) (images d'archives)
-Année 1982
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Brigitte_Lahaie</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brigitte_Lahaie</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Films pornographiques et érotiques</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Année 1982</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 1982 : Hot action de Gérard Kikoïne
 1982 : Professione p... attrice de Roberto Girometti (images d'archives)
 1982 : De bouche à bouche de Jean Luret (documentaire, images d'archives)
 1982 : Julchen und Jettchen, die verliebten Apothekerstöchter d'Erwin C. Dietrich (Michael Thomas) : Jenny (érotique)
 1982 : Paul Raymond's Erotica de Brian Smedley-Aston : Brigitte (érotique)
 1982 : Electric Blue 5 : Fanny (érotique)
-Année 1983-1987
-1983 : Baisers exotiques de Jean Luret : Elizabeth (érotique)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Brigitte_Lahaie</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brigitte_Lahaie</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Films pornographiques et érotiques</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Année 1983-1987</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>1983 : Baisers exotiques de Jean Luret : Elizabeth (érotique)
 1983 : Éducation anglaise de Jean-Claude Roy (érotique)
 1984 : La France interdite de Gilles Delannoy, Jean-Pierre Garnier et Jean-Pierre Imbrohoris (documentaire, érotique)
 1985 : Joy et Joan de Jacques Saurel : Joy (érotique)
-1987 : Le Diable rose de Pierre B. Reinhard : Naska/Lolita (érotique)
-Vidéos
-1987 : L'anthologie du plaisir d'Alain Payet (John, Love) (compilation)
+1987 : Le Diable rose de Pierre B. Reinhard : Naska/Lolita (érotique)</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Brigitte_Lahaie</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brigitte_Lahaie</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Vidéos</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>1987 : L'anthologie du plaisir d'Alain Payet (John, Love) (compilation)
 1989 : Only The Best From Europe (compilation)
-1995 : Electric Blue: Sex Model File #4 de Vic Marchant (softcore)
-Télévision
+1995 : Electric Blue: Sex Model File #4 de Vic Marchant (softcore)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Brigitte_Lahaie</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brigitte_Lahaie</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Télévision</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 1981 : Antoine et Julie de Gabriel Axel : (comme Brigitte Simonin)
 1982 : Les Brigades vertes de Gilles Grangier
 1983 : Le Lavabo, mini-série de Patrick Bouchitey
@@ -741,36 +1288,73 @@
 1989 : Le Triplé gagnant, épisode Le Dernier rendez-vous du président
 2020 : Une dernière fois (téléfilm érotique) d'Olympe de G. : Salomé
 2022 : Disparition inquiétante, épisode Sous pression : Valérie Müller
-Documentaire
-1999 : Eurotika ! : Vampires and Virgins: The Films of Jean Rollin : elle-même</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Brigitte_Lahaie</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Sexualité et sexologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Brigitte_Lahaie</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Brigitte_Lahaie</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brigitte_Lahaie</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Documentaire</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>1999 : Eurotika ! : Vampires and Virgins: The Films of Jean Rollin : elle-même</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Brigitte_Lahaie</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brigitte_Lahaie</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
         <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Zodiaque érotique, Paris, Ergo Presse, 1992 (ISBN 978-2-84098-016-2)
@@ -787,33 +1371,35 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Brigitte_Lahaie</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Sexualité et sexologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Brigitte_Lahaie</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Brigitte_Lahaie</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brigitte_Lahaie</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
         <is>
           <t>Distinction</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2014 : XRCO Hall of Fame[18]</t>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>2014 : XRCO Hall of Fame</t>
         </is>
       </c>
     </row>
